--- a/docs/_data/list_article_excel.xlsx
+++ b/docs/_data/list_article_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\rnn-sda\docs\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BC47FE96-5125-4820-A71C-66E6E2F82E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FD2DD6-01CC-479D-8963-E628C44BE257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E31628A9-ABC9-4A44-95E0-191C5B8BE917}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>nil</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>Kumpulan cheatsheet dari komunitas DataCamp</t>
+  </si>
+  <si>
+    <t>Python3 in one pic</t>
+  </si>
+  <si>
+    <t>https://github.com/coodict/python3-in-one-pic</t>
+  </si>
+  <si>
+    <t>Ringkasan Python 3</t>
   </si>
 </sst>
 </file>
@@ -482,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5F84C3-080D-4474-9E32-783E0E5028FD}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,10 +628,28 @@
         <v>28</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{E2A8B252-5F99-4648-B0D4-44CE604A2CAF}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{432D2C42-B4E1-4BAB-8155-3199D13FE18C}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{B5A24FBE-798C-462D-8AB1-7BE03A271670}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
